--- a/data/RespirationRate/Block2_Day35_plate2_results_Oxygen.xlsx
+++ b/data/RespirationRate/Block2_Day35_plate2_results_Oxygen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PreSens\SDR_v4.0.0\Resource Quality Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/mlfearon_umich_edu/Documents/PROJECTS/MHMP Daphnia Duffy/Resource Quality/Data and Code/resource-quality-expt/data/RespirationRate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{333FF140-76C8-4A1C-ABB6-F3D8DB4E2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{333FF140-76C8-4A1C-ABB6-F3D8DB4E2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F03E3AA-5F4A-4EC4-BB5F-816ECEA4A9D4}"/>
   <bookViews>
-    <workbookView xWindow="4133" yWindow="3675" windowWidth="16875" windowHeight="10523" xr2:uid="{2D473436-FDDE-46DF-9263-2B480FCF8558}"/>
+    <workbookView xWindow="960" yWindow="3420" windowWidth="21600" windowHeight="11270" xr2:uid="{2D473436-FDDE-46DF-9263-2B480FCF8558}"/>
   </bookViews>
   <sheets>
     <sheet name="Oxygen Orginal" sheetId="2" r:id="rId1"/>
@@ -818,11 +818,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAE191-B313-4A63-AC80-3DECB28D74E0}">
   <dimension ref="A1:AF85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:XFD12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -865,7 +867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -879,7 +881,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -899,7 +901,7 @@
         <v>46.95</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -913,7 +915,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -927,7 +929,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H7" t="s">
         <v>27</v>
       </c>
@@ -935,7 +937,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -943,7 +945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1038,7 +1040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1130,7 +1132,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1222,7 +1224,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1406,7 +1408,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1498,7 +1500,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1682,7 +1684,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1774,7 +1776,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -1958,7 +1960,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -2050,7 +2052,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2142,7 +2144,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2234,7 +2236,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2326,7 +2328,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -2418,7 +2420,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2602,7 +2604,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2786,7 +2788,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2970,7 +2972,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -3338,7 +3340,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -3430,7 +3432,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -3522,7 +3524,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -3706,7 +3708,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -3798,7 +3800,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -3890,7 +3892,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -3982,7 +3984,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -4074,7 +4076,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -4166,7 +4168,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -4350,7 +4352,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -4442,7 +4444,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -4534,7 +4536,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -4626,7 +4628,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -4718,7 +4720,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -4902,7 +4904,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -4994,7 +4996,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -5086,7 +5088,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -5178,7 +5180,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -5270,7 +5272,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -5362,7 +5364,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -5454,7 +5456,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -5638,7 +5640,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -5730,7 +5732,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -5822,7 +5824,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>113</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -6006,7 +6008,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -6098,7 +6100,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -6282,7 +6284,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>118</v>
       </c>
@@ -6374,7 +6376,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -6466,7 +6468,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -6650,7 +6652,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -6742,7 +6744,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -6834,7 +6836,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -6926,7 +6928,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -7018,7 +7020,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -7294,7 +7296,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -7386,7 +7388,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>130</v>
       </c>
@@ -7478,7 +7480,7 @@
         <v>21.74</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -7570,7 +7572,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -7673,7 +7675,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
